--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.155078</v>
+        <v>0.5295576666666667</v>
       </c>
       <c r="H2">
-        <v>0.465234</v>
+        <v>1.588673</v>
       </c>
       <c r="I2">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="J2">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.244896666666666</v>
+        <v>1.979087666666667</v>
       </c>
       <c r="N2">
-        <v>6.734689999999999</v>
+        <v>5.937263000000001</v>
       </c>
       <c r="O2">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="P2">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="Q2">
-        <v>0.3481340852733333</v>
+        <v>1.048041046888778</v>
       </c>
       <c r="R2">
-        <v>3.133206767459999</v>
+        <v>9.432369421999001</v>
       </c>
       <c r="S2">
-        <v>0.145516403712785</v>
+        <v>0.1858176667409094</v>
       </c>
       <c r="T2">
-        <v>0.145516403712785</v>
+        <v>0.1858176667409094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.155078</v>
+        <v>0.5295576666666667</v>
       </c>
       <c r="H3">
-        <v>0.465234</v>
+        <v>1.588673</v>
       </c>
       <c r="I3">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="J3">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.568895666666667</v>
       </c>
       <c r="N3">
-        <v>7.706687000000001</v>
+        <v>7.706687</v>
       </c>
       <c r="O3">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157145</v>
       </c>
       <c r="P3">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157146</v>
       </c>
       <c r="Q3">
-        <v>0.3983792021953334</v>
+        <v>1.360378395150111</v>
       </c>
       <c r="R3">
-        <v>3.585412819758</v>
+        <v>12.243405556351</v>
       </c>
       <c r="S3">
-        <v>0.1665183366688106</v>
+        <v>0.2411950753474283</v>
       </c>
       <c r="T3">
-        <v>0.1665183366688106</v>
+        <v>0.2411950753474284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.155078</v>
+        <v>0.5295576666666667</v>
       </c>
       <c r="H4">
-        <v>0.465234</v>
+        <v>1.588673</v>
       </c>
       <c r="I4">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="J4">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.837667666666666</v>
+        <v>2.580162</v>
       </c>
       <c r="N4">
-        <v>5.513002999999999</v>
+        <v>7.740486</v>
       </c>
       <c r="O4">
-        <v>0.2436077846983817</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="P4">
-        <v>0.2436077846983816</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="Q4">
-        <v>0.2849818264113333</v>
+        <v>1.366344568342</v>
       </c>
       <c r="R4">
-        <v>2.564836437702</v>
+        <v>12.297101115078</v>
       </c>
       <c r="S4">
-        <v>0.1191194205253389</v>
+        <v>0.2422528777924566</v>
       </c>
       <c r="T4">
-        <v>0.1191194205253389</v>
+        <v>0.2422528777924567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.155078</v>
+        <v>0.5295576666666667</v>
       </c>
       <c r="H5">
-        <v>0.465234</v>
+        <v>1.588673</v>
       </c>
       <c r="I5">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="J5">
-        <v>0.4889803528767538</v>
+        <v>0.7656712979474436</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8920906666666667</v>
+        <v>1.026787666666667</v>
       </c>
       <c r="N5">
-        <v>2.676272</v>
+        <v>3.080363</v>
       </c>
       <c r="O5">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="P5">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="Q5">
-        <v>0.1383436364053334</v>
+        <v>0.5437432809221111</v>
       </c>
       <c r="R5">
-        <v>1.245092727648</v>
+        <v>4.893689528299</v>
       </c>
       <c r="S5">
-        <v>0.05782619196981933</v>
+        <v>0.09640567806664918</v>
       </c>
       <c r="T5">
-        <v>0.05782619196981933</v>
+        <v>0.09640567806664921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.260523</v>
       </c>
       <c r="I6">
-        <v>0.2738205472353923</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="J6">
-        <v>0.2738205472353924</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.244896666666666</v>
+        <v>1.979087666666667</v>
       </c>
       <c r="N6">
-        <v>6.734689999999999</v>
+        <v>5.937263000000001</v>
       </c>
       <c r="O6">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="P6">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="Q6">
-        <v>0.19494907143</v>
+        <v>0.171865952061</v>
       </c>
       <c r="R6">
-        <v>1.75454164287</v>
+        <v>1.546793568549</v>
       </c>
       <c r="S6">
-        <v>0.08148667131909078</v>
+        <v>0.03047183151746264</v>
       </c>
       <c r="T6">
-        <v>0.08148667131909078</v>
+        <v>0.03047183151746265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.260523</v>
       </c>
       <c r="I7">
-        <v>0.2738205472353923</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="J7">
-        <v>0.2738205472353924</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>2.568895666666667</v>
       </c>
       <c r="N7">
-        <v>7.706687000000001</v>
+        <v>7.706687</v>
       </c>
       <c r="O7">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157145</v>
       </c>
       <c r="P7">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157146</v>
       </c>
       <c r="Q7">
         <v>0.223085468589</v>
@@ -883,10 +883,10 @@
         <v>2.007769217301</v>
       </c>
       <c r="S7">
-        <v>0.09324739082691406</v>
+        <v>0.03955305126652122</v>
       </c>
       <c r="T7">
-        <v>0.09324739082691408</v>
+        <v>0.03955305126652123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.260523</v>
       </c>
       <c r="I8">
-        <v>0.2738205472353923</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="J8">
-        <v>0.2738205472353924</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.837667666666666</v>
+        <v>2.580162</v>
       </c>
       <c r="N8">
-        <v>5.513002999999999</v>
+        <v>7.740486</v>
       </c>
       <c r="O8">
-        <v>0.2436077846983817</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="P8">
-        <v>0.2436077846983816</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="Q8">
-        <v>0.159584897841</v>
+        <v>0.224063848242</v>
       </c>
       <c r="R8">
-        <v>1.436264080569</v>
+        <v>2.016574634178</v>
       </c>
       <c r="S8">
-        <v>0.0667048169169125</v>
+        <v>0.03972651796884832</v>
       </c>
       <c r="T8">
-        <v>0.0667048169169125</v>
+        <v>0.03972651796884833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.260523</v>
       </c>
       <c r="I9">
-        <v>0.2738205472353923</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="J9">
-        <v>0.2738205472353924</v>
+        <v>0.1255607564018283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8920906666666667</v>
+        <v>1.026787666666667</v>
       </c>
       <c r="N9">
-        <v>2.676272</v>
+        <v>3.080363</v>
       </c>
       <c r="O9">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="P9">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="Q9">
-        <v>0.077470045584</v>
+        <v>0.08916726776099999</v>
       </c>
       <c r="R9">
-        <v>0.697230410256</v>
+        <v>0.8025054098490001</v>
       </c>
       <c r="S9">
-        <v>0.03238166817247502</v>
+        <v>0.01580935564899614</v>
       </c>
       <c r="T9">
-        <v>0.03238166817247502</v>
+        <v>0.01580935564899614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07522666666666668</v>
+        <v>0.07522666666666666</v>
       </c>
       <c r="H10">
         <v>0.22568</v>
       </c>
       <c r="I10">
-        <v>0.2371990998878538</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="J10">
-        <v>0.2371990998878539</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.244896666666666</v>
+        <v>1.979087666666667</v>
       </c>
       <c r="N10">
-        <v>6.734689999999999</v>
+        <v>5.937263000000001</v>
       </c>
       <c r="O10">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="P10">
-        <v>0.2975915143761655</v>
+        <v>0.2426859505365239</v>
       </c>
       <c r="Q10">
-        <v>0.1688760932444444</v>
+        <v>0.1488801682044444</v>
       </c>
       <c r="R10">
-        <v>1.5198848392</v>
+        <v>1.33992151384</v>
       </c>
       <c r="S10">
-        <v>0.07058843934428978</v>
+        <v>0.0263964522781519</v>
       </c>
       <c r="T10">
-        <v>0.07058843934428978</v>
+        <v>0.02639645227815191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07522666666666668</v>
+        <v>0.07522666666666666</v>
       </c>
       <c r="H11">
         <v>0.22568</v>
       </c>
       <c r="I11">
-        <v>0.2371990998878538</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="J11">
-        <v>0.2371990998878539</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,13 +1116,13 @@
         <v>2.568895666666667</v>
       </c>
       <c r="N11">
-        <v>7.706687000000001</v>
+        <v>7.706687</v>
       </c>
       <c r="O11">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157145</v>
       </c>
       <c r="P11">
-        <v>0.3405419781984187</v>
+        <v>0.3150112535157146</v>
       </c>
       <c r="Q11">
         <v>0.1932494580177778</v>
@@ -1131,10 +1131,10 @@
         <v>1.73924512216</v>
       </c>
       <c r="S11">
-        <v>0.08077625070269408</v>
+        <v>0.03426312690176495</v>
       </c>
       <c r="T11">
-        <v>0.08077625070269408</v>
+        <v>0.03426312690176495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07522666666666668</v>
+        <v>0.07522666666666666</v>
       </c>
       <c r="H12">
         <v>0.22568</v>
       </c>
       <c r="I12">
-        <v>0.2371990998878538</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="J12">
-        <v>0.2371990998878539</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.837667666666666</v>
+        <v>2.580162</v>
       </c>
       <c r="N12">
-        <v>5.513002999999999</v>
+        <v>7.740486</v>
       </c>
       <c r="O12">
-        <v>0.2436077846983817</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="P12">
-        <v>0.2436077846983816</v>
+        <v>0.3163927894931816</v>
       </c>
       <c r="Q12">
-        <v>0.1382416130044445</v>
+        <v>0.19409698672</v>
       </c>
       <c r="R12">
-        <v>1.24417451704</v>
+        <v>1.74687288048</v>
       </c>
       <c r="S12">
-        <v>0.05778354725613023</v>
+        <v>0.03441339373187661</v>
       </c>
       <c r="T12">
-        <v>0.05778354725613022</v>
+        <v>0.03441339373187662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07522666666666668</v>
+        <v>0.07522666666666666</v>
       </c>
       <c r="H13">
         <v>0.22568</v>
       </c>
       <c r="I13">
-        <v>0.2371990998878538</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="J13">
-        <v>0.2371990998878539</v>
+        <v>0.108767945650728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8920906666666667</v>
+        <v>1.026787666666667</v>
       </c>
       <c r="N13">
-        <v>2.676272</v>
+        <v>3.080363</v>
       </c>
       <c r="O13">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="P13">
-        <v>0.1182587227270341</v>
+        <v>0.1259100064545799</v>
       </c>
       <c r="Q13">
-        <v>0.06710900721777779</v>
+        <v>0.07724181353777777</v>
       </c>
       <c r="R13">
-        <v>0.60398106496</v>
+        <v>0.69517632184</v>
       </c>
       <c r="S13">
-        <v>0.02805086258473978</v>
+        <v>0.01369497273893456</v>
       </c>
       <c r="T13">
-        <v>0.02805086258473978</v>
+        <v>0.01369497273893456</v>
       </c>
     </row>
   </sheetData>
